--- a/new-stats/ssv-ulm-1846.xlsx
+++ b/new-stats/ssv-ulm-1846.xlsx
@@ -2256,22 +2256,62 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr"/>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Furth</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Ulm</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="M32" t="n">
+        <v>14</v>
+      </c>
+      <c r="N32" t="n">
+        <v>15</v>
+      </c>
+      <c r="O32" t="n">
+        <v>3</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr"/>

--- a/new-stats/ssv-ulm-1846.xlsx
+++ b/new-stats/ssv-ulm-1846.xlsx
@@ -2314,22 +2314,62 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr"/>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>03/05/2025</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Ulm</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Hannover</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1</v>
+      </c>
+      <c r="K33" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="M33" t="n">
+        <v>21</v>
+      </c>
+      <c r="N33" t="n">
+        <v>9</v>
+      </c>
+      <c r="O33" t="n">
+        <v>5</v>
+      </c>
+      <c r="P33" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr"/>

--- a/new-stats/ssv-ulm-1846.xlsx
+++ b/new-stats/ssv-ulm-1846.xlsx
@@ -2372,22 +2372,62 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr"/>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>10/05/2025</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Hamburger SV</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>6</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Ulm</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>3</v>
+      </c>
+      <c r="K34" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="L34" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="M34" t="n">
+        <v>17</v>
+      </c>
+      <c r="N34" t="n">
+        <v>15</v>
+      </c>
+      <c r="O34" t="n">
+        <v>4</v>
+      </c>
+      <c r="P34" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr"/>

--- a/new-stats/ssv-ulm-1846.xlsx
+++ b/new-stats/ssv-ulm-1846.xlsx
@@ -2430,22 +2430,62 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr"/>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>18/05/2025</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Ulm</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>2</v>
+      </c>
+      <c r="D35" t="n">
+        <v>2</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Munster</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" t="n">
+        <v>2</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="M35" t="n">
+        <v>7</v>
+      </c>
+      <c r="N35" t="n">
+        <v>12</v>
+      </c>
+      <c r="O35" t="n">
+        <v>3</v>
+      </c>
+      <c r="P35" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr"/>

--- a/new-stats/ssv-ulm-1846.xlsx
+++ b/new-stats/ssv-ulm-1846.xlsx
@@ -516,22 +516,58 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>03/08/2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Wehen</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Ulm</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
+      <c r="M2" t="n">
+        <v>14</v>
+      </c>
+      <c r="N2" t="n">
+        <v>19</v>
+      </c>
+      <c r="O2" t="n">
+        <v>5</v>
+      </c>
+      <c r="P2" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
